--- a/Code/Results/Cases/Case_2_121/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_121/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.00272900940493</v>
+        <v>9.237540118649887</v>
       </c>
       <c r="C2">
-        <v>6.19566530675799</v>
+        <v>4.847265884137244</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.74662833347862</v>
+        <v>20.45706822967662</v>
       </c>
       <c r="F2">
-        <v>31.22315761721608</v>
+        <v>40.60758663165755</v>
       </c>
       <c r="G2">
-        <v>2.097541092862907</v>
+        <v>3.648126559369127</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.016463029694298</v>
+        <v>8.29605291969596</v>
       </c>
       <c r="K2">
-        <v>10.55442222645924</v>
+        <v>8.566395636622991</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.55183698697724</v>
+        <v>17.79634646392574</v>
       </c>
       <c r="N2">
-        <v>12.5589591491432</v>
+        <v>19.36435176894801</v>
       </c>
       <c r="O2">
-        <v>15.07522960383219</v>
+        <v>23.4633967475671</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.2170388407263</v>
+        <v>8.995049700448309</v>
       </c>
       <c r="C3">
-        <v>5.942811610298241</v>
+        <v>4.739895602674514</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.97264614040328</v>
+        <v>20.3522692708156</v>
       </c>
       <c r="F3">
-        <v>30.22481843306801</v>
+        <v>40.54750959811948</v>
       </c>
       <c r="G3">
-        <v>2.101933272279268</v>
+        <v>3.649765675249533</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.057607041957806</v>
+        <v>8.309655889786097</v>
       </c>
       <c r="K3">
-        <v>9.959842131698757</v>
+        <v>8.409719272221309</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.84388781685481</v>
+        <v>17.68671362961611</v>
       </c>
       <c r="N3">
-        <v>12.76281409308028</v>
+        <v>19.4251663442612</v>
       </c>
       <c r="O3">
-        <v>15.13454403411421</v>
+        <v>23.54381649680408</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.70652518597658</v>
+        <v>8.844512339022415</v>
       </c>
       <c r="C4">
-        <v>5.781785189642386</v>
+        <v>4.672093838260674</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.48776407140311</v>
+        <v>20.29193732667622</v>
       </c>
       <c r="F4">
-        <v>29.62021946486414</v>
+        <v>40.52049975945128</v>
       </c>
       <c r="G4">
-        <v>2.104713097266203</v>
+        <v>3.650825330958281</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.083559118555779</v>
+        <v>8.318432438427561</v>
       </c>
       <c r="K4">
-        <v>9.576012614913539</v>
+        <v>8.313419467581507</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.39683725592975</v>
+        <v>17.6222911483426</v>
       </c>
       <c r="N4">
-        <v>12.89073657089285</v>
+        <v>19.46424754347827</v>
       </c>
       <c r="O4">
-        <v>15.18333759769101</v>
+        <v>23.59776008380815</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.49139518202744</v>
+        <v>8.782848998434305</v>
       </c>
       <c r="C5">
-        <v>5.714767366376421</v>
+        <v>4.644015880806089</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15.28801288837906</v>
+        <v>20.26838022869093</v>
       </c>
       <c r="F5">
-        <v>29.3762636414155</v>
+        <v>40.51198469140743</v>
       </c>
       <c r="G5">
-        <v>2.10586724025409</v>
+        <v>3.651270576309386</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.094312335697312</v>
+        <v>8.322115948275222</v>
       </c>
       <c r="K5">
-        <v>9.414930794923665</v>
+        <v>8.27420317862633</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.21178420654028</v>
+        <v>17.59678741466305</v>
       </c>
       <c r="N5">
-        <v>12.94358134637786</v>
+        <v>19.48061250271804</v>
       </c>
       <c r="O5">
-        <v>15.20620224976895</v>
+        <v>23.62088885526716</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.45524400658157</v>
+        <v>8.772593533881185</v>
       </c>
       <c r="C6">
-        <v>5.703556383198843</v>
+        <v>4.639327202487727</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15.25472267806022</v>
+        <v>20.26453124653757</v>
       </c>
       <c r="F6">
-        <v>29.33591071152441</v>
+        <v>40.51072144756427</v>
       </c>
       <c r="G6">
-        <v>2.106060187138492</v>
+        <v>3.651345321140878</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.096108740081529</v>
+        <v>8.322734063601875</v>
       </c>
       <c r="K6">
-        <v>9.387903040140746</v>
+        <v>8.267694484084027</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.18089013659258</v>
+        <v>17.59259838274977</v>
       </c>
       <c r="N6">
-        <v>12.95240002806106</v>
+        <v>19.48335644812758</v>
       </c>
       <c r="O6">
-        <v>15.21017517979782</v>
+        <v>23.62479855431643</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.70365261302701</v>
+        <v>8.843681883326184</v>
       </c>
       <c r="C7">
-        <v>5.780886948561446</v>
+        <v>4.67171695169772</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.48507850883272</v>
+        <v>20.29161543836372</v>
       </c>
       <c r="F7">
-        <v>29.6169191563168</v>
+        <v>40.52037482492175</v>
       </c>
       <c r="G7">
-        <v>2.104728575423757</v>
+        <v>3.650831281272084</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.083703415995218</v>
+        <v>8.318481681900877</v>
       </c>
       <c r="K7">
-        <v>9.573859035938575</v>
+        <v>8.312890405990398</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.39435287546039</v>
+        <v>17.62194413591911</v>
       </c>
       <c r="N7">
-        <v>12.89144632845141</v>
+        <v>19.46446646759409</v>
       </c>
       <c r="O7">
-        <v>15.18363405949038</v>
+        <v>23.59806736740583</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.73763733233242</v>
+        <v>9.154327424779032</v>
       </c>
       <c r="C8">
-        <v>6.109709122516193</v>
+        <v>4.810647666851724</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.48191270862879</v>
+        <v>20.42011209125424</v>
       </c>
       <c r="F8">
-        <v>30.87737461173516</v>
+        <v>40.58482728848302</v>
       </c>
       <c r="G8">
-        <v>2.09903857643125</v>
+        <v>3.648680703230974</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.030508947799763</v>
+        <v>8.300655353102911</v>
       </c>
       <c r="K8">
-        <v>10.35332771758066</v>
+        <v>8.51242512635657</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.31043132546657</v>
+        <v>17.75795801646222</v>
       </c>
       <c r="N8">
-        <v>12.62869055890057</v>
+        <v>19.38496012513485</v>
       </c>
       <c r="O8">
-        <v>15.0930334340941</v>
+        <v>23.49017687743467</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.54374060958344</v>
+        <v>9.746471210555852</v>
       </c>
       <c r="C9">
-        <v>6.706784807493456</v>
+        <v>5.067242695378049</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.35023633050941</v>
+        <v>20.7030487063864</v>
       </c>
       <c r="F9">
-        <v>33.40268859047168</v>
+        <v>40.78915649016181</v>
       </c>
       <c r="G9">
-        <v>2.08851680796898</v>
+        <v>3.644883903759943</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.931466429097611</v>
+        <v>8.269050145759211</v>
       </c>
       <c r="K9">
-        <v>11.73167610326508</v>
+        <v>8.900699850601102</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.00034449963139</v>
+        <v>18.04663265360691</v>
       </c>
       <c r="N9">
-        <v>12.13420030081048</v>
+        <v>19.24279995322832</v>
       </c>
       <c r="O9">
-        <v>15.01953227652076</v>
+        <v>23.31490528343776</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.73780832480154</v>
+        <v>10.16622938056749</v>
       </c>
       <c r="C10">
-        <v>7.114293845351213</v>
+        <v>5.244914831904653</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>19.65962120680113</v>
+        <v>20.92849589262885</v>
       </c>
       <c r="F10">
-        <v>35.27504604607945</v>
+        <v>40.9860699686698</v>
       </c>
       <c r="G10">
-        <v>2.081141454171264</v>
+        <v>3.642348074480376</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.861619247509104</v>
+        <v>8.247853280834148</v>
       </c>
       <c r="K10">
-        <v>12.65180802723684</v>
+        <v>9.181259742303009</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.20702977112841</v>
+        <v>18.27070147473968</v>
       </c>
       <c r="N10">
-        <v>11.78195665399683</v>
+        <v>19.14665136749751</v>
       </c>
       <c r="O10">
-        <v>15.03738677240143</v>
+        <v>23.20836568086163</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.25269450253102</v>
+        <v>10.35294976246302</v>
       </c>
       <c r="C11">
-        <v>7.292615301928457</v>
+        <v>5.323164429085383</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>20.24001746701383</v>
+        <v>21.03457246938648</v>
       </c>
       <c r="F11">
-        <v>36.1277994100392</v>
+        <v>41.08561324094723</v>
       </c>
       <c r="G11">
-        <v>2.077855564572251</v>
+        <v>3.641248979367338</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.830408604466824</v>
+        <v>8.238645375004189</v>
       </c>
       <c r="K11">
-        <v>13.05029558681677</v>
+        <v>9.30730118980577</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.82952090101707</v>
+        <v>18.37492186756184</v>
       </c>
       <c r="N11">
-        <v>11.62373462101681</v>
+        <v>19.10469385964631</v>
       </c>
       <c r="O11">
-        <v>15.06294011311666</v>
+        <v>23.16474685641702</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.44364429104874</v>
+        <v>10.42297943166922</v>
       </c>
       <c r="C12">
-        <v>7.359109002679036</v>
+        <v>5.352408593078978</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>20.45751763719629</v>
+        <v>21.0752200671565</v>
       </c>
       <c r="F12">
-        <v>36.45067651426729</v>
+        <v>41.12472060398306</v>
       </c>
       <c r="G12">
-        <v>2.07662055775905</v>
+        <v>3.640840570169058</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.818664886803635</v>
+        <v>8.235220763397214</v>
       </c>
       <c r="K12">
-        <v>13.1983124871856</v>
+        <v>9.35475701355449</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.06060775973142</v>
+        <v>18.41468923697994</v>
       </c>
       <c r="N12">
-        <v>11.56407673942191</v>
+        <v>19.08906037517744</v>
       </c>
       <c r="O12">
-        <v>15.07527472925315</v>
+        <v>23.1489281982012</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.40269819869663</v>
+        <v>10.40792844718176</v>
       </c>
       <c r="C13">
-        <v>7.344834557755808</v>
+        <v>5.346127819731898</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>20.41077777781264</v>
+        <v>21.06644503464265</v>
       </c>
       <c r="F13">
-        <v>36.38114361826288</v>
+        <v>41.116235663802</v>
       </c>
       <c r="G13">
-        <v>2.076886136477137</v>
+        <v>3.640928182345438</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.821190865730522</v>
+        <v>8.23595555185728</v>
       </c>
       <c r="K13">
-        <v>13.16656238998511</v>
+        <v>9.344549402922102</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.01104413975004</v>
+        <v>18.40611166929495</v>
       </c>
       <c r="N13">
-        <v>11.57691422466621</v>
+        <v>19.09241600723921</v>
       </c>
       <c r="O13">
-        <v>15.07249761152175</v>
+        <v>23.15230391812278</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.2684844956076</v>
+        <v>10.35872509336896</v>
       </c>
       <c r="C14">
-        <v>7.298106561273487</v>
+        <v>5.325578218190218</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>20.25795751631093</v>
+        <v>21.03790713781746</v>
       </c>
       <c r="F14">
-        <v>36.15436449033064</v>
+        <v>41.08880244458539</v>
       </c>
       <c r="G14">
-        <v>2.077753777612365</v>
+        <v>3.641215223303747</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.829440972336277</v>
+        <v>8.238362384711859</v>
       </c>
       <c r="K14">
-        <v>13.06253071903471</v>
+        <v>9.311211137172034</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.8486250714422</v>
+        <v>18.37818767498527</v>
       </c>
       <c r="N14">
-        <v>11.61882156659944</v>
+        <v>19.10340258139513</v>
       </c>
       <c r="O14">
-        <v>15.06390074733629</v>
+        <v>23.16343142924829</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.18575169312934</v>
+        <v>10.32849646958573</v>
       </c>
       <c r="C15">
-        <v>7.269349373326461</v>
+        <v>5.312940078180752</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.16405113483771</v>
+        <v>21.0204883650907</v>
       </c>
       <c r="F15">
-        <v>36.01544530843739</v>
+        <v>41.07218210465734</v>
       </c>
       <c r="G15">
-        <v>2.078286422090522</v>
+        <v>3.641392058102009</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.834503995997245</v>
+        <v>8.239844734257968</v>
       </c>
       <c r="K15">
-        <v>12.99843334131457</v>
+        <v>9.290753590960419</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.74853698274975</v>
+        <v>18.36112183098749</v>
       </c>
       <c r="N15">
-        <v>11.64452354135932</v>
+        <v>19.11016533745261</v>
       </c>
       <c r="O15">
-        <v>15.05898559012564</v>
+        <v>23.17033841707241</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.70359344894608</v>
+        <v>10.15393560960962</v>
       </c>
       <c r="C16">
-        <v>7.102496457915063</v>
+        <v>5.239747743080292</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>19.6213757110859</v>
+        <v>20.9216320381059</v>
       </c>
       <c r="F16">
-        <v>35.21932008898617</v>
+        <v>40.97976341117947</v>
       </c>
       <c r="G16">
-        <v>2.081357531551763</v>
+        <v>3.642420995684138</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.863669772562679</v>
+        <v>8.248463761480146</v>
       </c>
       <c r="K16">
-        <v>12.62536216991435</v>
+        <v>9.17298679261155</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.16569569820494</v>
+        <v>18.26393413371887</v>
       </c>
       <c r="N16">
-        <v>11.7923346654215</v>
+        <v>19.14942912513204</v>
       </c>
       <c r="O16">
-        <v>15.03608050427967</v>
+        <v>23.21131396377223</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.40058633762881</v>
+        <v>10.04571377444609</v>
       </c>
       <c r="C17">
-        <v>6.998315693284717</v>
+        <v>5.194174673782543</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.28448276532248</v>
+        <v>20.8618691024369</v>
       </c>
       <c r="F17">
-        <v>34.73103692574629</v>
+        <v>40.92560611653553</v>
       </c>
       <c r="G17">
-        <v>2.083258822589273</v>
+        <v>3.643066138616422</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.881702190251621</v>
+        <v>8.25386238076107</v>
       </c>
       <c r="K17">
-        <v>12.39135331477492</v>
+        <v>9.100301389139446</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.83478080436942</v>
+        <v>18.20487949227918</v>
       </c>
       <c r="N17">
-        <v>11.88350576527634</v>
+        <v>19.17397148680582</v>
       </c>
       <c r="O17">
-        <v>15.0266011683742</v>
+        <v>23.2376938358014</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.22363807088149</v>
+        <v>9.98307305486645</v>
       </c>
       <c r="C18">
-        <v>6.93773020596266</v>
+        <v>5.167720870731246</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.08927903228068</v>
+        <v>20.82782801623571</v>
       </c>
       <c r="F18">
-        <v>34.45029328709058</v>
+        <v>40.89539572300162</v>
       </c>
       <c r="G18">
-        <v>2.084358950005868</v>
+        <v>3.643442336644378</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.892127345640421</v>
+        <v>8.257008452113025</v>
       </c>
       <c r="K18">
-        <v>12.25486626426346</v>
+        <v>9.058347877137088</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.66094423167288</v>
+        <v>18.17113011326204</v>
       </c>
       <c r="N18">
-        <v>11.93613673033461</v>
+        <v>19.18825530734286</v>
       </c>
       <c r="O18">
-        <v>15.02278050105204</v>
+        <v>23.25332291182958</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.16326716212578</v>
+        <v>9.961798451969681</v>
       </c>
       <c r="C19">
-        <v>6.917103689052677</v>
+        <v>5.158723153504609</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.0229437060643</v>
+        <v>20.81636029843585</v>
       </c>
       <c r="F19">
-        <v>34.35526245066759</v>
+        <v>40.88532894979955</v>
       </c>
       <c r="G19">
-        <v>2.08473257957864</v>
+        <v>3.643570592883695</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.895666467174045</v>
+        <v>8.258080695875401</v>
       </c>
       <c r="K19">
-        <v>12.20832916495791</v>
+        <v>9.044119343507699</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.6018101479921</v>
+        <v>18.15974131769355</v>
       </c>
       <c r="N19">
-        <v>11.95399055992904</v>
+        <v>19.19312040311563</v>
       </c>
       <c r="O19">
-        <v>15.0217625086471</v>
+        <v>23.2586929200271</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.43311763851675</v>
+        <v>10.05727551015902</v>
       </c>
       <c r="C20">
-        <v>7.00947472774114</v>
+        <v>5.199051114700715</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.3204945270999</v>
+        <v>20.86819670316532</v>
       </c>
       <c r="F20">
-        <v>34.78300621622159</v>
+        <v>40.93127416651866</v>
       </c>
       <c r="G20">
-        <v>2.083055753146046</v>
+        <v>3.642996931505183</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.879777125011221</v>
+        <v>8.253283454630321</v>
       </c>
       <c r="K20">
-        <v>12.41645967783568</v>
+        <v>9.108054401616556</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.86682229957236</v>
+        <v>18.21114367229638</v>
       </c>
       <c r="N20">
-        <v>11.87378082791122</v>
+        <v>19.17134156248049</v>
       </c>
       <c r="O20">
-        <v>15.02744029980129</v>
+        <v>23.23483843767866</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.30801523265668</v>
+        <v>10.3731962128011</v>
       </c>
       <c r="C21">
-        <v>7.311859852872131</v>
+        <v>5.33162477360996</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>20.30290708180548</v>
+        <v>21.04627664067427</v>
       </c>
       <c r="F21">
-        <v>36.22097747143017</v>
+        <v>41.09682208646585</v>
       </c>
       <c r="G21">
-        <v>2.077498683787228</v>
+        <v>3.641130701183433</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.827015727514102</v>
+        <v>8.237653753081599</v>
       </c>
       <c r="K21">
-        <v>13.09316546635453</v>
+        <v>9.321011160194276</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.89645675558776</v>
+        <v>18.38638167518522</v>
       </c>
       <c r="N21">
-        <v>11.60650564870855</v>
+        <v>19.10016864938729</v>
       </c>
       <c r="O21">
-        <v>15.06635250450728</v>
+        <v>23.16014402809419</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.85636410941189</v>
+        <v>10.57569311212897</v>
       </c>
       <c r="C22">
-        <v>7.503461586693542</v>
+        <v>5.416005123743232</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>20.93163904686619</v>
+        <v>21.1654391268912</v>
       </c>
       <c r="F22">
-        <v>37.1604686361204</v>
+        <v>41.21323925115052</v>
       </c>
       <c r="G22">
-        <v>2.073920618109661</v>
+        <v>3.63995642536384</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.79296767915822</v>
+        <v>8.227801391485229</v>
       </c>
       <c r="K22">
-        <v>13.518642632451</v>
+        <v>9.458578281063252</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.56052463811463</v>
+        <v>18.50265317687375</v>
       </c>
       <c r="N22">
-        <v>11.43330938065576</v>
+        <v>19.0551383218971</v>
       </c>
       <c r="O22">
-        <v>15.10734790766315</v>
+        <v>23.11540115969488</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.56583048007593</v>
+        <v>10.4680017261487</v>
       </c>
       <c r="C23">
-        <v>7.401755971514749</v>
+        <v>5.371182201357833</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>20.59731553422021</v>
+        <v>21.10159503901397</v>
       </c>
       <c r="F23">
-        <v>36.65912491557226</v>
+        <v>41.1503602576351</v>
       </c>
       <c r="G23">
-        <v>2.075825606465842</v>
+        <v>3.640579015573073</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.81110205359562</v>
+        <v>8.233026700772838</v>
       </c>
       <c r="K23">
-        <v>13.29308985579593</v>
+        <v>9.385317947882095</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.20854468298309</v>
+        <v>18.44044672736674</v>
       </c>
       <c r="N23">
-        <v>11.52562303341179</v>
+        <v>19.07903634099861</v>
       </c>
       <c r="O23">
-        <v>15.08399363932552</v>
+        <v>23.13890785897459</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.41841879206864</v>
+        <v>10.05204976025573</v>
       </c>
       <c r="C24">
-        <v>7.004431877829662</v>
+        <v>5.196847263256571</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.30421833529729</v>
+        <v>20.8653350040509</v>
       </c>
       <c r="F24">
-        <v>34.7595109574431</v>
+        <v>40.92870875712454</v>
       </c>
       <c r="G24">
-        <v>2.083147538833247</v>
+        <v>3.643028203538369</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.880647265663277</v>
+        <v>8.253545055246779</v>
       </c>
       <c r="K24">
-        <v>12.40511517231491</v>
+        <v>9.104549777338518</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.85234163004521</v>
+        <v>18.208311005408</v>
       </c>
       <c r="N24">
-        <v>11.87817679847826</v>
+        <v>19.17253000888165</v>
       </c>
       <c r="O24">
-        <v>15.02705586558566</v>
+        <v>23.23612792127577</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.0786451599856</v>
+        <v>9.588633597509727</v>
       </c>
       <c r="C25">
-        <v>6.550610353346209</v>
+        <v>4.99965168562037</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.85528732609219</v>
+        <v>20.62332187445142</v>
       </c>
       <c r="F25">
-        <v>32.71550545418695</v>
+        <v>40.72560190509649</v>
       </c>
       <c r="G25">
-        <v>2.091298394092004</v>
+        <v>3.645866299214422</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.957725088662407</v>
+        <v>8.277243404303626</v>
       </c>
       <c r="K25">
-        <v>11.37501568709493</v>
+        <v>8.796286811971081</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.55561426849341</v>
+        <v>17.96632977926393</v>
       </c>
       <c r="N25">
-        <v>12.2659093560961</v>
+        <v>19.2797948643526</v>
       </c>
       <c r="O25">
-        <v>15.02741025784771</v>
+        <v>23.35842388314468</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_121/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_121/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.237540118649887</v>
+        <v>12.00272900940491</v>
       </c>
       <c r="C2">
-        <v>4.847265884137244</v>
+        <v>6.195665306757896</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>20.45706822967662</v>
+        <v>16.74662833347863</v>
       </c>
       <c r="F2">
-        <v>40.60758663165755</v>
+        <v>31.22315761721605</v>
       </c>
       <c r="G2">
-        <v>3.648126559369127</v>
+        <v>2.097541092862906</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.29605291969596</v>
+        <v>5.016463029694297</v>
       </c>
       <c r="K2">
-        <v>8.566395636622991</v>
+        <v>10.55442222645921</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.79634646392574</v>
+        <v>14.55183698697725</v>
       </c>
       <c r="N2">
-        <v>19.36435176894801</v>
+        <v>12.55895914914313</v>
       </c>
       <c r="O2">
-        <v>23.4633967475671</v>
+        <v>15.07522960383217</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.995049700448309</v>
+        <v>11.21703884072635</v>
       </c>
       <c r="C3">
-        <v>4.739895602674514</v>
+        <v>5.942811610298335</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>20.3522692708156</v>
+        <v>15.97264614040328</v>
       </c>
       <c r="F3">
-        <v>40.54750959811948</v>
+        <v>30.22481843306792</v>
       </c>
       <c r="G3">
-        <v>3.649765675249533</v>
+        <v>2.101933272279268</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.309655889786097</v>
+        <v>5.057607041957772</v>
       </c>
       <c r="K3">
-        <v>8.409719272221309</v>
+        <v>9.959842131698782</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.68671362961611</v>
+        <v>13.84388781685479</v>
       </c>
       <c r="N3">
-        <v>19.4251663442612</v>
+        <v>12.76281409308021</v>
       </c>
       <c r="O3">
-        <v>23.54381649680408</v>
+        <v>15.13454403411408</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.844512339022415</v>
+        <v>10.70652518597661</v>
       </c>
       <c r="C4">
-        <v>4.672093838260674</v>
+        <v>5.781785189642396</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>20.29193732667622</v>
+        <v>15.48776407140318</v>
       </c>
       <c r="F4">
-        <v>40.52049975945128</v>
+        <v>29.62021946486412</v>
       </c>
       <c r="G4">
-        <v>3.650825330958281</v>
+        <v>2.104713097266336</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.318432438427561</v>
+        <v>5.083559118555779</v>
       </c>
       <c r="K4">
-        <v>8.313419467581507</v>
+        <v>9.576012614913578</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.6222911483426</v>
+        <v>13.39683725592976</v>
       </c>
       <c r="N4">
-        <v>19.46424754347827</v>
+        <v>12.89073657089279</v>
       </c>
       <c r="O4">
-        <v>23.59776008380815</v>
+        <v>15.18333759769091</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.782848998434305</v>
+        <v>10.49139518202747</v>
       </c>
       <c r="C5">
-        <v>4.644015880806089</v>
+        <v>5.714767366376419</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20.26838022869093</v>
+        <v>15.28801288837918</v>
       </c>
       <c r="F5">
-        <v>40.51198469140743</v>
+        <v>29.37626364141552</v>
       </c>
       <c r="G5">
-        <v>3.651270576309386</v>
+        <v>2.105867240253958</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.322115948275222</v>
+        <v>5.094312335697345</v>
       </c>
       <c r="K5">
-        <v>8.27420317862633</v>
+        <v>9.414930794923714</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.59678741466305</v>
+        <v>13.21178420654032</v>
       </c>
       <c r="N5">
-        <v>19.48061250271804</v>
+        <v>12.94358134637786</v>
       </c>
       <c r="O5">
-        <v>23.62088885526716</v>
+        <v>15.20620224976892</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.772593533881185</v>
+        <v>10.45524400658152</v>
       </c>
       <c r="C6">
-        <v>4.639327202487727</v>
+        <v>5.703556383198931</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20.26453124653757</v>
+        <v>15.25472267806018</v>
       </c>
       <c r="F6">
-        <v>40.51072144756427</v>
+        <v>29.33591071152436</v>
       </c>
       <c r="G6">
-        <v>3.651345321140878</v>
+        <v>2.106060187138626</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.322734063601875</v>
+        <v>5.096108740081594</v>
       </c>
       <c r="K6">
-        <v>8.267694484084027</v>
+        <v>9.387903040140747</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.59259838274977</v>
+        <v>13.18089013659256</v>
       </c>
       <c r="N6">
-        <v>19.48335644812758</v>
+        <v>12.95240002806106</v>
       </c>
       <c r="O6">
-        <v>23.62479855431643</v>
+        <v>15.21017517979782</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.843681883326184</v>
+        <v>10.703652613027</v>
       </c>
       <c r="C7">
-        <v>4.67171695169772</v>
+        <v>5.780886948561665</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20.29161543836372</v>
+        <v>15.4850785088327</v>
       </c>
       <c r="F7">
-        <v>40.52037482492175</v>
+        <v>29.61691915631669</v>
       </c>
       <c r="G7">
-        <v>3.650831281272084</v>
+        <v>2.104728575424022</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.318481681900877</v>
+        <v>5.083703415995119</v>
       </c>
       <c r="K7">
-        <v>8.312890405990398</v>
+        <v>9.573859035938622</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.62194413591911</v>
+        <v>13.39435287546039</v>
       </c>
       <c r="N7">
-        <v>19.46446646759409</v>
+        <v>12.89144632845141</v>
       </c>
       <c r="O7">
-        <v>23.59806736740583</v>
+        <v>15.18363405949031</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.154327424779032</v>
+        <v>11.7376373323324</v>
       </c>
       <c r="C8">
-        <v>4.810647666851724</v>
+        <v>6.109709122516182</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>20.42011209125424</v>
+        <v>16.48191270862879</v>
       </c>
       <c r="F8">
-        <v>40.58482728848302</v>
+        <v>30.87737461173524</v>
       </c>
       <c r="G8">
-        <v>3.648680703230974</v>
+        <v>2.099038576431249</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.300655353102911</v>
+        <v>5.03050894779973</v>
       </c>
       <c r="K8">
-        <v>8.51242512635657</v>
+        <v>10.35332771758062</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.75795801646222</v>
+        <v>14.31043132546659</v>
       </c>
       <c r="N8">
-        <v>19.38496012513485</v>
+        <v>12.62869055890051</v>
       </c>
       <c r="O8">
-        <v>23.49017687743467</v>
+        <v>15.0930334340941</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.746471210555852</v>
+        <v>13.54374060958346</v>
       </c>
       <c r="C9">
-        <v>5.067242695378049</v>
+        <v>6.706784807493431</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>20.7030487063864</v>
+        <v>18.35023633050936</v>
       </c>
       <c r="F9">
-        <v>40.78915649016181</v>
+        <v>33.40268859047167</v>
       </c>
       <c r="G9">
-        <v>3.644883903759943</v>
+        <v>2.088516807969116</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.269050145759211</v>
+        <v>4.931466429097579</v>
       </c>
       <c r="K9">
-        <v>8.900699850601102</v>
+        <v>11.73167610326507</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.04663265360691</v>
+        <v>16.00034449963137</v>
       </c>
       <c r="N9">
-        <v>19.24279995322832</v>
+        <v>12.13420030081045</v>
       </c>
       <c r="O9">
-        <v>23.31490528343776</v>
+        <v>15.01953227652077</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.16622938056749</v>
+        <v>14.73780832480148</v>
       </c>
       <c r="C10">
-        <v>5.244914831904653</v>
+        <v>7.114293845351238</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.92849589262885</v>
+        <v>19.65962120680122</v>
       </c>
       <c r="F10">
-        <v>40.9860699686698</v>
+        <v>35.2750460460795</v>
       </c>
       <c r="G10">
-        <v>3.642348074480376</v>
+        <v>2.081141454171532</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.247853280834148</v>
+        <v>4.861619247509203</v>
       </c>
       <c r="K10">
-        <v>9.181259742303009</v>
+        <v>12.65180802723683</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.27070147473968</v>
+        <v>17.20702977112835</v>
       </c>
       <c r="N10">
-        <v>19.14665136749751</v>
+        <v>11.78195665399683</v>
       </c>
       <c r="O10">
-        <v>23.20836568086163</v>
+        <v>15.03738677240145</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.35294976246302</v>
+        <v>15.25269450253104</v>
       </c>
       <c r="C11">
-        <v>5.323164429085383</v>
+        <v>7.292615301928245</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>21.03457246938648</v>
+        <v>20.2400174670138</v>
       </c>
       <c r="F11">
-        <v>41.08561324094723</v>
+        <v>36.12779941003925</v>
       </c>
       <c r="G11">
-        <v>3.641248979367338</v>
+        <v>2.077855564572118</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.238645375004189</v>
+        <v>4.83040860446679</v>
       </c>
       <c r="K11">
-        <v>9.30730118980577</v>
+        <v>13.05029558681671</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.37492186756184</v>
+        <v>17.82952090101706</v>
       </c>
       <c r="N11">
-        <v>19.10469385964631</v>
+        <v>11.62373462101685</v>
       </c>
       <c r="O11">
-        <v>23.16474685641702</v>
+        <v>15.0629401131168</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.42297943166922</v>
+        <v>15.44364429104878</v>
       </c>
       <c r="C12">
-        <v>5.352408593078978</v>
+        <v>7.35910900267908</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.0752200671565</v>
+        <v>20.45751763719631</v>
       </c>
       <c r="F12">
-        <v>41.12472060398306</v>
+        <v>36.45067651426734</v>
       </c>
       <c r="G12">
-        <v>3.640840570169058</v>
+        <v>2.076620557758917</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.235220763397214</v>
+        <v>4.818664886803637</v>
       </c>
       <c r="K12">
-        <v>9.35475701355449</v>
+        <v>13.19831248718568</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.41468923697994</v>
+        <v>18.06060775973141</v>
       </c>
       <c r="N12">
-        <v>19.08906037517744</v>
+        <v>11.56407673942191</v>
       </c>
       <c r="O12">
-        <v>23.1489281982012</v>
+        <v>15.0752747292531</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.40792844718176</v>
+        <v>15.40269819869662</v>
       </c>
       <c r="C13">
-        <v>5.346127819731898</v>
+        <v>7.344834557755892</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>21.06644503464265</v>
+        <v>20.41077777781265</v>
       </c>
       <c r="F13">
-        <v>41.116235663802</v>
+        <v>36.38114361826289</v>
       </c>
       <c r="G13">
-        <v>3.640928182345438</v>
+        <v>2.076886136477003</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.23595555185728</v>
+        <v>4.82119086573049</v>
       </c>
       <c r="K13">
-        <v>9.344549402922102</v>
+        <v>13.16656238998511</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.40611166929495</v>
+        <v>18.01104413975004</v>
       </c>
       <c r="N13">
-        <v>19.09241600723921</v>
+        <v>11.57691422466628</v>
       </c>
       <c r="O13">
-        <v>23.15230391812278</v>
+        <v>15.07249761152182</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.35872509336896</v>
+        <v>15.26848449560768</v>
       </c>
       <c r="C14">
-        <v>5.325578218190218</v>
+        <v>7.298106561273403</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>21.03790713781746</v>
+        <v>20.25795751631097</v>
       </c>
       <c r="F14">
-        <v>41.08880244458539</v>
+        <v>36.15436449033062</v>
       </c>
       <c r="G14">
-        <v>3.641215223303747</v>
+        <v>2.077753777612231</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.238362384711859</v>
+        <v>4.829440972336311</v>
       </c>
       <c r="K14">
-        <v>9.311211137172034</v>
+        <v>13.06253071903474</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.37818767498527</v>
+        <v>17.84862507144221</v>
       </c>
       <c r="N14">
-        <v>19.10340258139513</v>
+        <v>11.61882156659941</v>
       </c>
       <c r="O14">
-        <v>23.16343142924829</v>
+        <v>15.06390074733623</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.32849646958573</v>
+        <v>15.18575169312942</v>
       </c>
       <c r="C15">
-        <v>5.312940078180752</v>
+        <v>7.269349373326476</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>21.0204883650907</v>
+        <v>20.16405113483772</v>
       </c>
       <c r="F15">
-        <v>41.07218210465734</v>
+        <v>36.01544530843735</v>
       </c>
       <c r="G15">
-        <v>3.641392058102009</v>
+        <v>2.078286422090524</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.239844734257968</v>
+        <v>4.834503995997178</v>
       </c>
       <c r="K15">
-        <v>9.290753590960419</v>
+        <v>12.99843334131462</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.36112183098749</v>
+        <v>17.7485369827498</v>
       </c>
       <c r="N15">
-        <v>19.11016533745261</v>
+        <v>11.64452354135922</v>
       </c>
       <c r="O15">
-        <v>23.17033841707241</v>
+        <v>15.05898559012547</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.15393560960962</v>
+        <v>14.70359344894606</v>
       </c>
       <c r="C16">
-        <v>5.239747743080292</v>
+        <v>7.10249645791515</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>20.9216320381059</v>
+        <v>19.62137571108588</v>
       </c>
       <c r="F16">
-        <v>40.97976341117947</v>
+        <v>35.21932008898607</v>
       </c>
       <c r="G16">
-        <v>3.642420995684138</v>
+        <v>2.081357531551763</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.248463761480146</v>
+        <v>4.863669772562713</v>
       </c>
       <c r="K16">
-        <v>9.17298679261155</v>
+        <v>12.62536216991435</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.26393413371887</v>
+        <v>17.16569569820497</v>
       </c>
       <c r="N16">
-        <v>19.14942912513204</v>
+        <v>11.7923346654215</v>
       </c>
       <c r="O16">
-        <v>23.21131396377223</v>
+        <v>15.03608050427962</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.04571377444609</v>
+        <v>14.40058633762883</v>
       </c>
       <c r="C17">
-        <v>5.194174673782543</v>
+        <v>6.998315693284915</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>20.8618691024369</v>
+        <v>19.28448276532249</v>
       </c>
       <c r="F17">
-        <v>40.92560611653553</v>
+        <v>34.73103692574632</v>
       </c>
       <c r="G17">
-        <v>3.643066138616422</v>
+        <v>2.083258822589407</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.25386238076107</v>
+        <v>4.881702190251623</v>
       </c>
       <c r="K17">
-        <v>9.100301389139446</v>
+        <v>12.39135331477494</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.20487949227918</v>
+        <v>16.83478080436943</v>
       </c>
       <c r="N17">
-        <v>19.17397148680582</v>
+        <v>11.88350576527634</v>
       </c>
       <c r="O17">
-        <v>23.2376938358014</v>
+        <v>15.02660116837415</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.98307305486645</v>
+        <v>14.22363807088149</v>
       </c>
       <c r="C18">
-        <v>5.167720870731246</v>
+        <v>6.937730205962707</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>20.82782801623571</v>
+        <v>19.08927903228067</v>
       </c>
       <c r="F18">
-        <v>40.89539572300162</v>
+        <v>34.45029328709058</v>
       </c>
       <c r="G18">
-        <v>3.643442336644378</v>
+        <v>2.0843589500056</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.257008452113025</v>
+        <v>4.892127345640521</v>
       </c>
       <c r="K18">
-        <v>9.058347877137088</v>
+        <v>12.25486626426347</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.17113011326204</v>
+        <v>16.66094423167288</v>
       </c>
       <c r="N18">
-        <v>19.18825530734286</v>
+        <v>11.93613673033468</v>
       </c>
       <c r="O18">
-        <v>23.25332291182958</v>
+        <v>15.02278050105213</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.961798451969681</v>
+        <v>14.16326716212576</v>
       </c>
       <c r="C19">
-        <v>5.158723153504609</v>
+        <v>6.917103689052963</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>20.81636029843585</v>
+        <v>19.02294370606431</v>
       </c>
       <c r="F19">
-        <v>40.88532894979955</v>
+        <v>34.35526245066762</v>
       </c>
       <c r="G19">
-        <v>3.643570592883695</v>
+        <v>2.084732579578772</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.258080695875401</v>
+        <v>4.895666467174011</v>
       </c>
       <c r="K19">
-        <v>9.044119343507699</v>
+        <v>12.20832916495796</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.15974131769355</v>
+        <v>16.60181014799211</v>
       </c>
       <c r="N19">
-        <v>19.19312040311563</v>
+        <v>11.95399055992894</v>
       </c>
       <c r="O19">
-        <v>23.2586929200271</v>
+        <v>15.02176250864701</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.05727551015902</v>
+        <v>14.43311763851673</v>
       </c>
       <c r="C20">
-        <v>5.199051114700715</v>
+        <v>7.00947472774124</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>20.86819670316532</v>
+        <v>19.32049452709991</v>
       </c>
       <c r="F20">
-        <v>40.93127416651866</v>
+        <v>34.78300621622157</v>
       </c>
       <c r="G20">
-        <v>3.642996931505183</v>
+        <v>2.083055753145778</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.253283454630321</v>
+        <v>4.879777125011219</v>
       </c>
       <c r="K20">
-        <v>9.108054401616556</v>
+        <v>12.41645967783564</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.21114367229638</v>
+        <v>16.86682229957236</v>
       </c>
       <c r="N20">
-        <v>19.17134156248049</v>
+        <v>11.87378082791116</v>
       </c>
       <c r="O20">
-        <v>23.23483843767866</v>
+        <v>15.02744029980124</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.3731962128011</v>
+        <v>15.30801523265664</v>
       </c>
       <c r="C21">
-        <v>5.33162477360996</v>
+        <v>7.311859852872217</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>21.04627664067427</v>
+        <v>20.30290708180548</v>
       </c>
       <c r="F21">
-        <v>41.09682208646585</v>
+        <v>36.22097747143017</v>
       </c>
       <c r="G21">
-        <v>3.641130701183433</v>
+        <v>2.077498683787359</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.237653753081599</v>
+        <v>4.827015727514169</v>
       </c>
       <c r="K21">
-        <v>9.321011160194276</v>
+        <v>13.09316546635453</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.38638167518522</v>
+        <v>17.89645675558773</v>
       </c>
       <c r="N21">
-        <v>19.10016864938729</v>
+        <v>11.60650564870855</v>
       </c>
       <c r="O21">
-        <v>23.16014402809419</v>
+        <v>15.06635250450726</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.57569311212897</v>
+        <v>15.85636410941193</v>
       </c>
       <c r="C22">
-        <v>5.416005123743232</v>
+        <v>7.503461586693446</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.1654391268912</v>
+        <v>20.93163904686616</v>
       </c>
       <c r="F22">
-        <v>41.21323925115052</v>
+        <v>37.16046863612045</v>
       </c>
       <c r="G22">
-        <v>3.63995642536384</v>
+        <v>2.073920618109527</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.227801391485229</v>
+        <v>4.792967679158054</v>
       </c>
       <c r="K22">
-        <v>9.458578281063252</v>
+        <v>13.51864263245099</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.50265317687375</v>
+        <v>18.56052463811462</v>
       </c>
       <c r="N22">
-        <v>19.0551383218971</v>
+        <v>11.43330938065572</v>
       </c>
       <c r="O22">
-        <v>23.11540115969488</v>
+        <v>15.10734790766318</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.4680017261487</v>
+        <v>15.56583048007596</v>
       </c>
       <c r="C23">
-        <v>5.371182201357833</v>
+        <v>7.401755971514737</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.10159503901397</v>
+        <v>20.59731553422025</v>
       </c>
       <c r="F23">
-        <v>41.1503602576351</v>
+        <v>36.65912491557225</v>
       </c>
       <c r="G23">
-        <v>3.640579015573073</v>
+        <v>2.075825606465707</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.233026700772838</v>
+        <v>4.811102053595587</v>
       </c>
       <c r="K23">
-        <v>9.385317947882095</v>
+        <v>13.29308985579595</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.44044672736674</v>
+        <v>18.20854468298308</v>
       </c>
       <c r="N23">
-        <v>19.07903634099861</v>
+        <v>11.52562303341175</v>
       </c>
       <c r="O23">
-        <v>23.13890785897459</v>
+        <v>15.08399363932542</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.05204976025573</v>
+        <v>14.41841879206865</v>
       </c>
       <c r="C24">
-        <v>5.196847263256571</v>
+        <v>7.004431877829474</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>20.8653350040509</v>
+        <v>19.30421833529732</v>
       </c>
       <c r="F24">
-        <v>40.92870875712454</v>
+        <v>34.75951095744313</v>
       </c>
       <c r="G24">
-        <v>3.643028203538369</v>
+        <v>2.083147538832979</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.253545055246779</v>
+        <v>4.880647265663242</v>
       </c>
       <c r="K24">
-        <v>9.104549777338518</v>
+        <v>12.40511517231486</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.208311005408</v>
+        <v>16.85234163004521</v>
       </c>
       <c r="N24">
-        <v>19.17253000888165</v>
+        <v>11.87817679847826</v>
       </c>
       <c r="O24">
-        <v>23.23612792127577</v>
+        <v>15.02705586558565</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.588633597509727</v>
+        <v>13.07864515998564</v>
       </c>
       <c r="C25">
-        <v>4.99965168562037</v>
+        <v>6.550610353346312</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>20.62332187445142</v>
+        <v>17.85528732609222</v>
       </c>
       <c r="F25">
-        <v>40.72560190509649</v>
+        <v>32.71550545418698</v>
       </c>
       <c r="G25">
-        <v>3.645866299214422</v>
+        <v>2.091298394092135</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.277243404303626</v>
+        <v>4.957725088662406</v>
       </c>
       <c r="K25">
-        <v>8.796286811971081</v>
+        <v>11.37501568709495</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.96632977926393</v>
+        <v>15.55561426849342</v>
       </c>
       <c r="N25">
-        <v>19.2797948643526</v>
+        <v>12.26590935609614</v>
       </c>
       <c r="O25">
-        <v>23.35842388314468</v>
+        <v>15.02741025784769</v>
       </c>
     </row>
   </sheetData>
